--- a/public/templates/savings_template.xlsx
+++ b/public/templates/savings_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/von-christian/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/von-christian/Projects/coop_catalyst/public/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EAABA35D-C24F-B840-9944-4598FB1A189F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{048E00FC-6627-A74E-995A-891358C9E8C8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{1FDF543A-2A34-0F43-B80D-E9A161FD81B9}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16620" xr2:uid="{1FDF543A-2A34-0F43-B80D-E9A161FD81B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Last Name</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Balance</t>
   </si>
   <si>
-    <t>Cut-off Date</t>
-  </si>
-  <si>
     <t>Saving Product</t>
   </si>
   <si>
@@ -48,25 +45,28 @@
     <t>Depositor Type</t>
   </si>
   <si>
-    <t>Halip</t>
-  </si>
-  <si>
     <t>Von Christian</t>
   </si>
   <si>
-    <t>Regular Savings</t>
-  </si>
-  <si>
     <t>Member</t>
   </si>
   <si>
-    <t>09/31/18</t>
+    <t>Regular Savings Deposit</t>
+  </si>
+  <si>
+    <t>Cut Off Date</t>
+  </si>
+  <si>
+    <t>Cruz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -123,7 +123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -131,6 +131,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,7 +449,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -462,53 +463,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>3</v>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
       </c>
       <c r="D3">
         <v>500</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="F3" s="3">
+        <v>43465</v>
       </c>
     </row>
   </sheetData>
